--- a/doc/OpenGL performance.xlsx
+++ b/doc/OpenGL performance.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="15135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ultra" sheetId="4" r:id="rId1"/>
+    <sheet name="Low" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="17">
   <si>
     <t>Low quality 640 x 480 no tessellation</t>
   </si>
@@ -64,6 +63,9 @@
   </si>
   <si>
     <t>Relative maximum FPS</t>
+  </si>
+  <si>
+    <t>Ultra quality 1920 x 1200 no tessellation</t>
   </si>
 </sst>
 </file>
@@ -187,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,13 +278,13 @@
               </a:rPr>
             </a:br>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Low quality 640x480 no tessellation</a:t>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
@@ -307,7 +310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$32</c:f>
+              <c:f>Ultra!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -324,7 +327,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$33:$F$35</c:f>
+              <c:f>Ultra!$F$33:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -341,7 +344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$33:$G$35</c:f>
+              <c:f>Ultra!$G$33:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -363,7 +366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$32</c:f>
+              <c:f>Ultra!$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -380,7 +383,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$33:$F$35</c:f>
+              <c:f>Ultra!$F$33:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -397,18 +400,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$33:$H$35</c:f>
+              <c:f>Ultra!$H$33:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>104.15368639667706</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.269230769230774</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.3</c:v>
+                  <c:v>105.36912751677852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.72549019607844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.22828784119108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,7 +422,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$32</c:f>
+              <c:f>Ultra!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -436,7 +439,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$33:$F$35</c:f>
+              <c:f>Ultra!$F$33:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -453,18 +456,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$33:$I$35</c:f>
+              <c:f>Ultra!$I$33:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>91.069574247144345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.84615384615384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.3</c:v>
+                  <c:v>83.892617449664428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.88235294117648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.48138957816379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,11 +482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40289408"/>
-        <c:axId val="40290944"/>
+        <c:axId val="192264832"/>
+        <c:axId val="192332160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40289408"/>
+        <c:axId val="192264832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +495,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40290944"/>
+        <c:crossAx val="192332160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -500,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40290944"/>
+        <c:axId val="192332160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -512,7 +515,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40289408"/>
+        <c:crossAx val="192264832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2.5"/>
@@ -535,607 +538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Unigine </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Valley</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>: relative average FPS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Low quality 640 x 480 no tessellation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AFCD19"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$33:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$33:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F9F900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$33:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$33:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100.78585461689588</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.61010830324911</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.36986301369863</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5781AE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$33:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$33:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>93.320235756385074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.194945848375454</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.514677103718199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="177477504"/>
-        <c:axId val="177479040"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="177477504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177479040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="177479040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="120"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177477504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Unigine Valley: relative minimum FPS</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Low quality 640 x 480 no tessellation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12031933508311461"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AFCD19"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$46:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$46:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F9F900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$46:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$46:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.957055214723923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.43037974683544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5781AE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$46:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$46:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>97.005988023952099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.184049079754601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.860759493670891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="178196864"/>
-        <c:axId val="178198400"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="178196864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178198400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="178198400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178196864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1202,7 +605,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$45</c:f>
+              <c:f>Low!$G$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,7 +622,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$46:$F$48</c:f>
+              <c:f>Low!$F$46:$F$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1236,7 +639,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$46:$G$48</c:f>
+              <c:f>Low!$G$46:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1258,7 +661,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$45</c:f>
+              <c:f>Low!$H$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1275,7 +678,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$46:$F$48</c:f>
+              <c:f>Low!$F$46:$F$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1292,7 +695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$46:$H$48</c:f>
+              <c:f>Low!$H$46:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1314,7 +717,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$45</c:f>
+              <c:f>Low!$I$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1331,7 +734,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$46:$F$48</c:f>
+              <c:f>Low!$F$46:$F$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1348,7 +751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$46:$I$48</c:f>
+              <c:f>Low!$I$46:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1428,7 +831,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1516,7 +919,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$58</c:f>
+              <c:f>Low!$B$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1533,7 +936,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$59:$A$61</c:f>
+              <c:f>Low!$A$59:$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1550,7 +953,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$B$61</c:f>
+              <c:f>Low!$B$59:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1572,7 +975,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$58</c:f>
+              <c:f>Low!$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1589,7 +992,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$59:$A$61</c:f>
+              <c:f>Low!$A$59:$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1606,7 +1009,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$59:$C$61</c:f>
+              <c:f>Low!$C$59:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1628,7 +1031,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$58</c:f>
+              <c:f>Low!$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1645,7 +1048,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$59:$A$61</c:f>
+              <c:f>Low!$A$59:$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1662,7 +1065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$59:$D$61</c:f>
+              <c:f>Low!$D$59:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1742,7 +1145,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1809,7 +1212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$58</c:f>
+              <c:f>Low!$G$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1826,7 +1229,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$59:$F$61</c:f>
+              <c:f>Low!$F$59:$F$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1843,7 +1246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$59:$G$61</c:f>
+              <c:f>Low!$G$59:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1865,7 +1268,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$58</c:f>
+              <c:f>Low!$H$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1882,7 +1285,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$59:$F$61</c:f>
+              <c:f>Low!$F$59:$F$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1899,7 +1302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$59:$H$61</c:f>
+              <c:f>Low!$H$59:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1921,7 +1324,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$58</c:f>
+              <c:f>Low!$I$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1938,7 +1341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$59:$F$61</c:f>
+              <c:f>Low!$F$59:$F$61</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1955,7 +1358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$59:$I$61</c:f>
+              <c:f>Low!$I$59:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2035,7 +1438,2599 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Valley</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: relative average FPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$C$33:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>103.35570469798658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.92156862745098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.68421052631579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$D$33:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.892617449664428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.078431372549034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="193070976"/>
+        <c:axId val="193072512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="193070976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193072512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="193072512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193070976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: relative minimum FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12031933508311461"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$C$46:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.489361702127653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.736842105263165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.789473684210535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$D$46:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>77.659574468085097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.289473684210535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="182068736"/>
+        <c:axId val="182070272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="182068736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182070272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182070272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182068736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Heaven: relative min FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$46:$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$G$46:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$H$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$46:$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$H$46:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>170.68965517241381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.7922077922078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$46:$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$I$46:$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>112.06896551724138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.2987012987013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="207893248"/>
+        <c:axId val="207894784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="207893248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207894784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="207894784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="207893248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: relative max FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$59:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$B$59:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$59:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$C$59:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>104.66101694915254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.7922077922078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.678529062870709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$A$59:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$D$59:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>106.77966101694915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.103896103896105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.379596678529062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="200437760"/>
+        <c:axId val="200439296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="200437760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200439296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200439296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200437760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Heaven: relative max FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$G$59:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$H$59:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>79.411764705882348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.034188034188034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.05882352941177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$I$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$I$59:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>88.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.435897435897445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.803921568627445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="200457216"/>
+        <c:axId val="200467200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="200457216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200467200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200467200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200457216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Heaven: relative average FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Low quality 640x480 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$F$33:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$G$33:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$F$33:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$H$33:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>104.15368639667706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.269230769230774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$F$33:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$I$33:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.069574247144345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="40289408"/>
+        <c:axId val="40290944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40289408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40290944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40290944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40289408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Valley</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: relative average FPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Low quality 640 x 480 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$C$33:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100.78585461689588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.61010830324911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.36986301369863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$D$33:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93.320235756385074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.194945848375454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.514677103718199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="177477504"/>
+        <c:axId val="177479040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="177477504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177479040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177479040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177477504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: relative minimum FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Low quality 640 x 480 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12031933508311461"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$C$46:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.957055214723923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.43037974683544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$D$46:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>97.005988023952099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.184049079754601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.860759493670891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="178196864"/>
+        <c:axId val="178198400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="178196864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178198400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178198400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178196864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2509,8 +4504,880 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="17">
+        <v>14.9</v>
+      </c>
+      <c r="H28" s="17">
+        <v>15.7</v>
+      </c>
+      <c r="I28" s="7">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C29" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H29" s="17">
+        <v>5.8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="17">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H30" s="17">
+        <v>54.9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6">
+        <v>100</v>
+      </c>
+      <c r="C33" s="6">
+        <f>C28*B33/B28</f>
+        <v>103.35570469798658</v>
+      </c>
+      <c r="D33" s="6">
+        <f>D28*B33/B28</f>
+        <v>83.892617449664428</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="6">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <f>H28*G33/G28</f>
+        <v>105.36912751677852</v>
+      </c>
+      <c r="I33" s="7">
+        <f>I28*G33/G28</f>
+        <v>83.892617449664428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="6">
+        <v>100</v>
+      </c>
+      <c r="C34" s="6">
+        <f>C29*B34/B29</f>
+        <v>103.92156862745098</v>
+      </c>
+      <c r="D34" s="6">
+        <f>D29*B34/B29</f>
+        <v>96.078431372549034</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="6">
+        <v>100</v>
+      </c>
+      <c r="H34" s="6">
+        <f>H29*G34/G29</f>
+        <v>113.72549019607844</v>
+      </c>
+      <c r="I34" s="7">
+        <f>I29*G34/G29</f>
+        <v>105.88235294117648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="12">
+        <v>100</v>
+      </c>
+      <c r="C35" s="12">
+        <f>C30*B35/B30</f>
+        <v>101.68421052631579</v>
+      </c>
+      <c r="D35" s="12">
+        <f>D30*B35/B30</f>
+        <v>67.999999999999986</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="12">
+        <v>100</v>
+      </c>
+      <c r="H35" s="12">
+        <f>H30*G35/G30</f>
+        <v>136.22828784119108</v>
+      </c>
+      <c r="I35" s="13">
+        <f>I30*G35/G30</f>
+        <v>102.48138957816379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C41" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="17">
+        <v>5.8</v>
+      </c>
+      <c r="H41" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="17">
+        <v>7.7</v>
+      </c>
+      <c r="H43" s="17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I43" s="7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6">
+        <v>100</v>
+      </c>
+      <c r="C46" s="6">
+        <f>C41*B46/B41</f>
+        <v>91.489361702127653</v>
+      </c>
+      <c r="D46" s="6">
+        <f>D41*B46/B41</f>
+        <v>77.659574468085097</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="6">
+        <v>100</v>
+      </c>
+      <c r="H46" s="6">
+        <f>H41*G46/G41</f>
+        <v>170.68965517241381</v>
+      </c>
+      <c r="I46" s="7">
+        <f>I41*G46/G41</f>
+        <v>112.06896551724138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="6">
+        <v>100</v>
+      </c>
+      <c r="C47" s="6">
+        <f>C42*B47/B42</f>
+        <v>94.736842105263165</v>
+      </c>
+      <c r="D47" s="6">
+        <f>D42*B47/B42</f>
+        <v>89.473684210526315</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="6">
+        <v>100</v>
+      </c>
+      <c r="H47" s="6">
+        <f>H42*G47/G42</f>
+        <v>112.5</v>
+      </c>
+      <c r="I47" s="7">
+        <f>I42*G47/G42</f>
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="12">
+        <v>100</v>
+      </c>
+      <c r="C48" s="12">
+        <f>C43*B48/B43</f>
+        <v>65.789473684210535</v>
+      </c>
+      <c r="D48" s="12">
+        <f>D43*B48/B43</f>
+        <v>78.289473684210535</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="12">
+        <v>100</v>
+      </c>
+      <c r="H48" s="12">
+        <f>H43*G48/G43</f>
+        <v>107.7922077922078</v>
+      </c>
+      <c r="I48" s="13">
+        <f>I43*G48/G43</f>
+        <v>101.2987012987013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="C54" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="17">
+        <v>34</v>
+      </c>
+      <c r="H54" s="17">
+        <v>27</v>
+      </c>
+      <c r="I54" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="C55" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D55" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17">
+        <v>11.7</v>
+      </c>
+      <c r="H55" s="17">
+        <v>10.3</v>
+      </c>
+      <c r="I55" s="7">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="6">
+        <v>84.3</v>
+      </c>
+      <c r="C56" s="6">
+        <v>81.5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="17">
+        <v>102</v>
+      </c>
+      <c r="H56" s="17">
+        <v>109.2</v>
+      </c>
+      <c r="I56" s="7">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="6">
+        <v>100</v>
+      </c>
+      <c r="C59" s="6">
+        <f>C54*B59/B54</f>
+        <v>104.66101694915254</v>
+      </c>
+      <c r="D59" s="6">
+        <f>D54*B59/B54</f>
+        <v>106.77966101694915</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="6">
+        <v>100</v>
+      </c>
+      <c r="H59" s="6">
+        <f>H54*G59/G54</f>
+        <v>79.411764705882348</v>
+      </c>
+      <c r="I59" s="7">
+        <f>I54*G59/G54</f>
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="6">
+        <v>100</v>
+      </c>
+      <c r="C60" s="6">
+        <f>C55*B60/B55</f>
+        <v>107.7922077922078</v>
+      </c>
+      <c r="D60" s="6">
+        <f>D55*B60/B55</f>
+        <v>96.103896103896105</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="6">
+        <v>100</v>
+      </c>
+      <c r="H60" s="6">
+        <f>H55*G60/G55</f>
+        <v>88.034188034188034</v>
+      </c>
+      <c r="I60" s="7">
+        <f>I55*G60/G55</f>
+        <v>97.435897435897445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="12">
+        <v>100</v>
+      </c>
+      <c r="C61" s="12">
+        <f>C56*B61/B56</f>
+        <v>96.678529062870709</v>
+      </c>
+      <c r="D61" s="12">
+        <f>D56*B61/B56</f>
+        <v>60.379596678529062</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="12">
+        <v>100</v>
+      </c>
+      <c r="H61" s="12">
+        <f>H56*G61/G56</f>
+        <v>107.05882352941177</v>
+      </c>
+      <c r="I61" s="13">
+        <f>I56*G61/G56</f>
+        <v>84.803921568627445</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A50:I50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3791,28 +6658,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/OpenGL performance.xlsx
+++ b/doc/OpenGL performance.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="15135"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="15075"/>
   </bookViews>
   <sheets>
-    <sheet name="Ultra" sheetId="4" r:id="rId1"/>
-    <sheet name="Low" sheetId="1" r:id="rId2"/>
+    <sheet name="Mac" sheetId="5" r:id="rId1"/>
+    <sheet name="Ultra" sheetId="4" r:id="rId2"/>
+    <sheet name="Low" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="28">
   <si>
     <t>Low quality 640 x 480 no tessellation</t>
   </si>
@@ -66,6 +68,39 @@
   </si>
   <si>
     <t>Ultra quality 1920 x 1200 no tessellation</t>
+  </si>
+  <si>
+    <t>Apple OpenGL</t>
+  </si>
+  <si>
+    <t>NVIDIA OpenGL</t>
+  </si>
+  <si>
+    <t>NVIDIA Direct3D 11</t>
+  </si>
+  <si>
+    <t>NVIDIA Direct3D 9</t>
+  </si>
+  <si>
+    <t>MacBook Pro late 2009, MacOS X 10.7.5 - Windows 7</t>
+  </si>
+  <si>
+    <t>Absolute average FPS</t>
+  </si>
+  <si>
+    <t>AMD OpenGL</t>
+  </si>
+  <si>
+    <t>AMD Direct3D 11</t>
+  </si>
+  <si>
+    <t>AMD Direct3D 9</t>
+  </si>
+  <si>
+    <t>Radeon 6750M, MacOS X 10.7.5 - Windows 7</t>
+  </si>
+  <si>
+    <t>GeForce 9400M, MacOS X 10.7.5 - Windows 7</t>
   </si>
 </sst>
 </file>
@@ -189,11 +224,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,9 +246,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,13 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,9 +266,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAFCD19"/>
+      <color rgb="FFF9F900"/>
       <color rgb="FF5781AE"/>
-      <color rgb="FFF9F900"/>
-      <color rgb="FFAFCD19"/>
     </mruColors>
   </colors>
   <extLst>
@@ -244,6 +280,616 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: absolute average FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MacBook Pro late 2009, MacOS X 10.7.5 - Windows 7</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA Direct3D 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA Direct3D 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$D$6:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$E$6:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="79762560"/>
+        <c:axId val="79764096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79762560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79764096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79764096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79762560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Heaven: relative max FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$G$59:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$H$59:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>79.411764705882348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.034188034188034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.05882352941177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$I$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$I$59:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>88.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.435897435897445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.803921568627445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171405696"/>
+        <c:axId val="171407232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171405696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171407232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171407232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171405696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -278,13 +924,13 @@
               </a:rPr>
             </a:br>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+              <a:t>Low quality 640x480 no tessellation</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
@@ -295,7 +941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -310,7 +955,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ultra!$G$32</c:f>
+              <c:f>Low!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -327,7 +972,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Ultra!$F$33:$F$35</c:f>
+              <c:f>Low!$F$33:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -344,7 +989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ultra!$G$33:$G$35</c:f>
+              <c:f>Low!$G$33:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -366,7 +1011,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ultra!$H$32</c:f>
+              <c:f>Low!$H$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,7 +1028,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Ultra!$F$33:$F$35</c:f>
+              <c:f>Low!$F$33:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -400,18 +1045,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ultra!$H$33:$H$35</c:f>
+              <c:f>Low!$H$33:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>105.36912751677852</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113.72549019607844</c:v>
+                  <c:v>104.15368639667706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.269230769230774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136.22828784119108</c:v>
+                  <c:v>104.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,7 +1067,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ultra!$I$32</c:f>
+              <c:f>Low!$I$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,7 +1084,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Ultra!$F$33:$F$35</c:f>
+              <c:f>Low!$F$33:$F$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -456,18 +1101,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ultra!$I$33:$I$35</c:f>
+              <c:f>Low!$I$33:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>83.892617449664428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105.88235294117648</c:v>
+                  <c:v>91.069574247144345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.84615384615384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.48138957816379</c:v>
+                  <c:v>74.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,11 +1127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192264832"/>
-        <c:axId val="192332160"/>
+        <c:axId val="171831296"/>
+        <c:axId val="171832832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192264832"/>
+        <c:axId val="171831296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +1140,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192332160"/>
+        <c:crossAx val="171832832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192332160"/>
+        <c:axId val="171832832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -515,7 +1160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192264832"/>
+        <c:crossAx val="171831296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2.5"/>
@@ -523,7 +1168,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -538,7 +1182,604 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Valley</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>: relative average FPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Low quality 640 x 480 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$C$33:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100.78585461689588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.61010830324911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.36986301369863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$33:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$D$33:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>93.320235756385074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.194945848375454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.514677103718199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171461632"/>
+        <c:axId val="171479808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171461632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171479808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171479808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171461632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: relative minimum FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Low quality 640 x 480 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12031933508311461"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$C$46:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.957055214723923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.43037974683544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$A$46:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$D$46:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>97.005988023952099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.184049079754601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.860759493670891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171907328"/>
+        <c:axId val="171913216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171907328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171913216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171913216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171907328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -590,7 +1831,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -777,11 +2017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39912576"/>
-        <c:axId val="39915520"/>
+        <c:axId val="171943424"/>
+        <c:axId val="171944960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39912576"/>
+        <c:axId val="171943424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +2030,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39915520"/>
+        <c:crossAx val="171944960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -798,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39915520"/>
+        <c:axId val="171944960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,14 +2049,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39912576"/>
+        <c:crossAx val="171943424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -831,7 +2070,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -904,7 +2143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1091,11 +2329,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="177613824"/>
-        <c:axId val="177615616"/>
+        <c:axId val="171995904"/>
+        <c:axId val="171997440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177613824"/>
+        <c:axId val="171995904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +2342,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177615616"/>
+        <c:crossAx val="171997440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +2350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177615616"/>
+        <c:axId val="171997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,14 +2361,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177613824"/>
+        <c:crossAx val="171995904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1145,7 +2382,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1197,6 +2434,291 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$G$59:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$H$59:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>101.29701686121919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.614708233413268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.9052102950408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$I$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Low!$F$59:$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Low!$I$59:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100.77821011673153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.562749800159878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.433145009416194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="172556288"/>
+        <c:axId val="172557824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="172556288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172557824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172557824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172556288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: Relative average FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>GeForce 9400M, MacOS X 10.7.5 - Windows 7</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1212,11 +2734,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Low!$G$58</c:f>
+              <c:f>Mac!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
+                  <c:v>NVIDIA Direct3D 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1229,34 +2751,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Low!$F$59:$F$61</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
+              <c:f>Mac!$H$6:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Low!$G$59:$G$61</c:f>
+              <c:f>Mac!$I$6:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -1268,11 +2784,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Low!$H$58</c:f>
+              <c:f>Mac!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
+                  <c:v>NVIDIA Direct3D 11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1285,35 +2801,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Low!$F$59:$F$61</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
+              <c:f>Mac!$H$6:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Low!$H$59:$H$61</c:f>
+              <c:f>Mac!$J$6:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>101.29701686121919</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.614708233413268</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106.9052102950408</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94.936708860759495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.972972972972968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,11 +2834,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Low!$I$58</c:f>
+              <c:f>Mac!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
+                  <c:v>NVIDIA OpenGL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1341,35 +2851,81 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Low!$F$59:$F$61</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
+              <c:f>Mac!$H$6:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Low!$I$59:$I$61</c:f>
+              <c:f>Mac!$K$6:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100.77821011673153</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.562749800159878</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70.433145009416194</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>93.670886075949369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.13513513513513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$H$6:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$L$6:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>98.734177215189874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.891891891891888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,11 +2940,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="178493312"/>
-        <c:axId val="178494848"/>
+        <c:axId val="79815808"/>
+        <c:axId val="79817344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178493312"/>
+        <c:axId val="79815808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +2953,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178494848"/>
+        <c:crossAx val="79817344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,9 +2961,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178494848"/>
+        <c:axId val="79817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1416,7 +2973,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178493312"/>
+        <c:crossAx val="79815808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,7 +2995,887 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Valley: Relative average FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Radeon 6750M, MacOS X 10.8.2 - Windows 7</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD Direct3D 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$H$29:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$I$29:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD Direct3D 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$H$29:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$J$29:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100.51194539249147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.104945717732207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$K$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$H$29:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$K$29:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>79.522184300341294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.357056694813025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$H$29:$H$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$L$29:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85.836177474402731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.092882991556081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49682688"/>
+        <c:axId val="49688576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49682688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49688576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49688576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49682688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD Direct3D 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$29:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$B$29:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD Direct3D 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$29:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$C$29:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$29:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$D$29:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mac!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple OpenGL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mac!$A$29:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valley</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heaven</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mac!$E$29:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="184582912"/>
+        <c:axId val="184584448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="184582912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184584448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184584448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184582912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Unigine Heaven: relative average FPS</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AFCD19"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$33:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$G$33:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Direct3D11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F9F900"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$33:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$H$33:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>105.36912751677852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.72549019607844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.22828784119108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ultra!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5781AE"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ultra!$F$33:$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NVIDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ultra!$I$33:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83.892617449664428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.88235294117648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.48138957816379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="38535936"/>
+        <c:axId val="38537472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38535936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38537472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38537472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38535936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1498,7 +3935,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1685,11 +4121,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193070976"/>
-        <c:axId val="193072512"/>
+        <c:axId val="38567936"/>
+        <c:axId val="38569472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193070976"/>
+        <c:axId val="38567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +4134,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193072512"/>
+        <c:crossAx val="38569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +4142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193072512"/>
+        <c:axId val="38569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1718,14 +4154,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193070976"/>
+        <c:crossAx val="38567936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1740,7 +4175,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1984,11 +4419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182068736"/>
-        <c:axId val="182070272"/>
+        <c:axId val="117941376"/>
+        <c:axId val="117942912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182068736"/>
+        <c:axId val="117941376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +4432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182070272"/>
+        <c:crossAx val="117942912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +4440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182070272"/>
+        <c:axId val="117942912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,14 +4451,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182068736"/>
+        <c:crossAx val="117941376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2038,7 +4472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2090,7 +4524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2277,11 +4710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="207893248"/>
-        <c:axId val="207894784"/>
+        <c:axId val="167006592"/>
+        <c:axId val="167008128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207893248"/>
+        <c:axId val="167006592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +4723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207894784"/>
+        <c:crossAx val="167008128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2298,7 +4731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207894784"/>
+        <c:axId val="167008128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,14 +4742,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207893248"/>
+        <c:crossAx val="167006592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2331,7 +4763,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2404,7 +4836,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2591,11 +5022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200437760"/>
-        <c:axId val="200439296"/>
+        <c:axId val="167020416"/>
+        <c:axId val="167021952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200437760"/>
+        <c:axId val="167020416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +5035,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200439296"/>
+        <c:crossAx val="167021952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2612,7 +5043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200439296"/>
+        <c:axId val="167021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,1202 +5054,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200437760"/>
+        <c:crossAx val="167020416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Unigine Heaven: relative max FPS</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Ultra quality 1920 x 1200 no tessellation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ultra!$G$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AFCD19"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ultra!$F$59:$F$61</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ultra!$G$59:$G$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ultra!$H$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F9F900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ultra!$F$59:$F$61</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ultra!$H$59:$H$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>79.411764705882348</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.034188034188034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107.05882352941177</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ultra!$I$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5781AE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Ultra!$F$59:$F$61</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ultra!$I$59:$I$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>88.235294117647058</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.435897435897445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.803921568627445</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="200457216"/>
-        <c:axId val="200467200"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="200457216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200467200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="200467200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200457216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Unigine Heaven: relative average FPS</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Low quality 640x480 no tessellation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$G$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AFCD19"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$F$33:$F$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$G$33:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$H$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F9F900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$F$33:$F$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$H$33:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>104.15368639667706</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.269230769230774</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$I$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5781AE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$F$33:$F$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$I$33:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>91.069574247144345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.84615384615384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="40289408"/>
-        <c:axId val="40290944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="40289408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40290944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="40290944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="120"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40289408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:minorUnit val="2.5"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Unigine </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Valley</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>: relative average FPS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Low quality 640 x 480 no tessellation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AFCD19"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$A$33:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$B$33:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$C$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F9F900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$A$33:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$C$33:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100.78585461689588</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.61010830324911</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.36986301369863</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$D$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5781AE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$A$33:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$D$33:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>93.320235756385074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.194945848375454</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.514677103718199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="177477504"/>
-        <c:axId val="177479040"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="177477504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177479040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="177479040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="120"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177477504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Unigine Valley: relative minimum FPS</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Low quality 640 x 480 no tessellation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12031933508311461"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$B$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="AFCD19"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$A$46:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$B$46:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direct3D11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F9F900"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$A$46:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$C$46:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.957055214723923</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.43037974683544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$D$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenGL 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5781AE"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Low!$A$46:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>AMD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Intel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NVIDIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Low!$D$46:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>97.005988023952099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.184049079754601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58.860759493670891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="178196864"/>
-        <c:axId val="178198400"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="178196864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178198400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="178198400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178196864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3834,6 +5076,131 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4030,7 +5397,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4502,9 +5869,720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="H3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <f>C6*I6/B6</f>
+        <v>94.936708860759495</v>
+      </c>
+      <c r="K6" s="2">
+        <f>D6*I6/B6</f>
+        <v>93.670886075949369</v>
+      </c>
+      <c r="L6" s="3">
+        <f>E6*I6/B6</f>
+        <v>98.734177215189874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5">
+        <f>C7*I7/B7</f>
+        <v>97.972972972972968</v>
+      </c>
+      <c r="K7" s="5">
+        <f>D7*I7/B7</f>
+        <v>85.13513513513513</v>
+      </c>
+      <c r="L7" s="6">
+        <f>E7*I7/B7</f>
+        <v>91.891891891891888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="H25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="H26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="E29" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>100</v>
+      </c>
+      <c r="J29" s="2">
+        <f>C29*I29/B29</f>
+        <v>100.51194539249147</v>
+      </c>
+      <c r="K29" s="2">
+        <f>D29*I29/B29</f>
+        <v>79.522184300341294</v>
+      </c>
+      <c r="L29" s="3">
+        <f>E29*I29/B29</f>
+        <v>85.836177474402731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5">
+        <v>82.9</v>
+      </c>
+      <c r="C30" s="5">
+        <v>80.5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>63.3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="5">
+        <v>100</v>
+      </c>
+      <c r="J30" s="5">
+        <f>C30*I30/B30</f>
+        <v>97.104945717732207</v>
+      </c>
+      <c r="K30" s="5">
+        <f>D30*I30/B30</f>
+        <v>76.357056694813025</v>
+      </c>
+      <c r="L30" s="6">
+        <f>E30*I30/B30</f>
+        <v>87.092882991556081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -4521,838 +6599,838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="2">
         <v>14.9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <v>15.4</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <v>12.5</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="10">
         <v>14.9</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="10">
         <v>15.7</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>12.5</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <v>5.3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="10">
         <v>5.8</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="3">
         <v>5.4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="2">
         <v>47.5</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <v>48.3</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="10">
         <v>40.299999999999997</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="10">
         <v>54.9</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="3">
         <v>41.3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="2">
         <v>100</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <f>C28*B33/B28</f>
         <v>103.35570469798658</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <f>D28*B33/B28</f>
         <v>83.892617449664428</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="2">
         <v>100</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="2">
         <f>H28*G33/G28</f>
         <v>105.36912751677852</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="3">
         <f>I28*G33/G28</f>
         <v>83.892617449664428</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <v>100</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <f>C29*B34/B29</f>
         <v>103.92156862745098</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <f>D29*B34/B29</f>
         <v>96.078431372549034</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="2">
         <v>100</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="2">
         <f>H29*G34/G29</f>
         <v>113.72549019607844</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="3">
         <f>I29*G34/G29</f>
         <v>105.88235294117648</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="5">
         <v>100</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <f>C30*B35/B30</f>
         <v>101.68421052631579</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="5">
         <f>D30*B35/B30</f>
         <v>67.999999999999986</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="5">
         <v>100</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="5">
         <f>H30*G35/G30</f>
         <v>136.22828784119108</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="6">
         <f>I30*G35/G30</f>
         <v>102.48138957816379</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="2">
         <v>9.4</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="2">
         <v>8.6</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="2">
         <v>7.3</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="10">
         <v>5.8</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="10">
         <v>9.9</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="3">
         <v>6.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="2">
         <v>3.8</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="2">
         <v>3.6</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="2">
         <v>3.4</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="2">
         <v>3.2</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="2">
         <v>3.6</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="3">
         <v>3.4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="2">
         <v>15.2</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="2">
         <v>10</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="2">
         <v>11.9</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="10">
         <v>7.7</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="3">
         <v>7.8</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="2">
         <v>100</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="2">
         <f>C41*B46/B41</f>
         <v>91.489361702127653</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="2">
         <f>D41*B46/B41</f>
         <v>77.659574468085097</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="2">
         <v>100</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="2">
         <f>H41*G46/G41</f>
         <v>170.68965517241381</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="3">
         <f>I41*G46/G41</f>
         <v>112.06896551724138</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="2">
         <v>100</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="2">
         <f>C42*B47/B42</f>
         <v>94.736842105263165</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="2">
         <f>D42*B47/B42</f>
         <v>89.473684210526315</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="2">
         <v>100</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="2">
         <f>H42*G47/G42</f>
         <v>112.5</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="3">
         <f>I42*G47/G42</f>
         <v>106.25</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="5">
         <v>100</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="5">
         <f>C43*B48/B43</f>
         <v>65.789473684210535</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="5">
         <f>D43*B48/B43</f>
         <v>78.289473684210535</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="5">
         <v>100</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="5">
         <f>H43*G48/G43</f>
         <v>107.7922077922078</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="6">
         <f>I43*G48/G43</f>
         <v>101.2987012987013</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="16"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="2">
         <v>23.6</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="2">
         <v>24.7</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="2">
         <v>25.2</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="10">
         <v>34</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="10">
         <v>27</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="2">
         <v>7.7</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="2">
         <v>7.4</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="10">
         <v>11.7</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="10">
         <v>10.3</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="3">
         <v>11.4</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="2">
         <v>84.3</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="2">
         <v>81.5</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="2">
         <v>50.9</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="10">
         <v>102</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="10">
         <v>109.2</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="3">
         <v>86.5</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="2">
         <v>100</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="2">
         <f>C54*B59/B54</f>
         <v>104.66101694915254</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="2">
         <f>D54*B59/B54</f>
         <v>106.77966101694915</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="2">
         <v>100</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="2">
         <f>H54*G59/G54</f>
         <v>79.411764705882348</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="3">
         <f>I54*G59/G54</f>
         <v>88.235294117647058</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="2">
         <v>100</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="2">
         <f>C55*B60/B55</f>
         <v>107.7922077922078</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="2">
         <f>D55*B60/B55</f>
         <v>96.103896103896105</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="2">
         <v>100</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="2">
         <f>H55*G60/G55</f>
         <v>88.034188034188034</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="3">
         <f>I55*G60/G55</f>
         <v>97.435897435897445</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="5">
         <v>100</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="5">
         <f>C56*B61/B56</f>
         <v>96.678529062870709</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="5">
         <f>D56*B61/B56</f>
         <v>60.379596678529062</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="5">
         <v>100</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="5">
         <f>H56*G61/G56</f>
         <v>107.05882352941177</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="6">
         <f>I56*G61/G56</f>
         <v>84.803921568627445</v>
       </c>
@@ -5372,7 +7450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
@@ -5393,12 +7471,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5816,831 +7894,831 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="2">
         <v>50.9</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <v>51.3</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <v>47.5</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="2">
         <v>96.3</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="2">
         <v>100.3</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>87.7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="2">
         <v>27.7</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <v>28.7</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <v>27.2</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="2">
         <v>52</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="2">
         <v>51.1</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="2">
         <v>51.1</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <v>51.8</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>34.5</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="2">
         <v>100</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="2">
         <v>104.3</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="3">
         <v>74.3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="2">
         <v>100</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <f>C28*B33/B28</f>
         <v>100.78585461689588</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <f>D28*B33/B28</f>
         <v>93.320235756385074</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="2">
         <v>100</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="2">
         <f>H28*G33/G28</f>
         <v>104.15368639667706</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="3">
         <f>I28*G33/G28</f>
         <v>91.069574247144345</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <v>100</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <f>C29*B34/B29</f>
         <v>103.61010830324911</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <f>D29*B34/B29</f>
         <v>98.194945848375454</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="2">
         <v>100</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="2">
         <f>H29*G34/G29</f>
         <v>98.269230769230774</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="3">
         <f>I29*G34/G29</f>
         <v>103.84615384615384</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="5">
         <v>100</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <f>C30*B35/B30</f>
         <v>101.36986301369863</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="5">
         <f>D30*B35/B30</f>
         <v>67.514677103718199</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="5">
         <v>100</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="5">
         <f>H30*G35/G30</f>
         <v>104.3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="6">
         <f>I30*G35/G30</f>
         <v>74.3</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="2">
         <v>16.7</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="2">
         <v>16.7</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="2">
         <v>16.2</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="2">
         <v>20.2</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="2">
         <v>20</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="3">
         <v>9.4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="2">
         <v>16.3</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="2">
         <v>14.5</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="2">
         <v>14.7</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="2">
         <v>22.3</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="2">
         <v>9</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="3">
         <v>13.1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="2">
         <v>15.8</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="2">
         <v>16.5</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="2">
         <v>20.3</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="2">
         <v>21.9</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="3">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="2">
         <v>100</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="2">
         <f>C41*B46/B41</f>
         <v>100</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="2">
         <f>D41*B46/B41</f>
         <v>97.005988023952099</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="2">
         <v>100</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="2">
         <f>H41*G46/G41</f>
         <v>99.009900990099013</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="3">
         <f>I41*G46/G41</f>
         <v>46.534653465346537</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="2">
         <v>100</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="2">
         <f>C42*B47/B42</f>
         <v>88.957055214723923</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="2">
         <f>D42*B47/B42</f>
         <v>90.184049079754601</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="2">
         <v>100</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="2">
         <f>H42*G47/G42</f>
         <v>40.358744394618832</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="3">
         <f>I42*G47/G42</f>
         <v>58.744394618834079</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="5">
         <v>100</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="5">
         <f>C43*B48/B43</f>
         <v>104.43037974683544</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="5">
         <f>D43*B48/B43</f>
         <v>58.860759493670891</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="5">
         <v>100</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="5">
         <f>H43*G48/G43</f>
         <v>107.88177339901478</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="6">
         <f>I43*G48/G43</f>
         <v>45.320197044334968</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="16"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="2">
         <v>83.3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="2">
         <v>85</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="2">
         <v>79</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="2">
         <v>154.19999999999999</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="2">
         <v>156.19999999999999</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="3">
         <v>155.4</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="2">
         <v>55.7</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="2">
         <v>58.2</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="2">
         <v>54.9</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="2">
         <v>125.1</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="2">
         <v>102.1</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="3">
         <v>120.8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="2">
         <v>85.8</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="2">
         <v>86.7</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="2">
         <v>54.4</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="2">
         <v>159.30000000000001</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="2">
         <v>170.3</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="3">
         <v>112.2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="2">
         <v>100</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="2">
         <f>C54*B59/B54</f>
         <v>102.04081632653062</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="2">
         <f>D54*B59/B54</f>
         <v>94.837935174069628</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="2">
         <v>100</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="2">
         <f>H54*G59/G54</f>
         <v>101.29701686121919</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="3">
         <f>I54*G59/G54</f>
         <v>100.77821011673153</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="2">
         <v>100</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="2">
         <f>C55*B60/B55</f>
         <v>104.4883303411131</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="2">
         <f>D55*B60/B55</f>
         <v>98.563734290843797</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="2">
         <v>100</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="2">
         <f>H55*G60/G55</f>
         <v>81.614708233413268</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="3">
         <f>I55*G60/G55</f>
         <v>96.562749800159878</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="5">
         <v>100</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="5">
         <f>C56*B61/B56</f>
         <v>101.04895104895105</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="5">
         <f>D56*B61/B56</f>
         <v>63.403263403263402</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="5">
         <v>100</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="5">
         <f>H56*G61/G56</f>
         <v>106.9052102950408</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="6">
         <f>I56*G61/G56</f>
         <v>70.433145009416194</v>
       </c>

--- a/doc/OpenGL performance.xlsx
+++ b/doc/OpenGL performance.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Low" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -544,11 +543,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79762560"/>
-        <c:axId val="79764096"/>
+        <c:axId val="129250816"/>
+        <c:axId val="129252352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79762560"/>
+        <c:axId val="129250816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +556,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79764096"/>
+        <c:crossAx val="129252352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79764096"/>
+        <c:axId val="129252352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +575,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79762560"/>
+        <c:crossAx val="129250816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,11 +835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171405696"/>
-        <c:axId val="171407232"/>
+        <c:axId val="130143360"/>
+        <c:axId val="130144896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171405696"/>
+        <c:axId val="130143360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +848,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171407232"/>
+        <c:crossAx val="130144896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -857,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171407232"/>
+        <c:axId val="130144896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171405696"/>
+        <c:crossAx val="130143360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1127,11 +1126,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171831296"/>
-        <c:axId val="171832832"/>
+        <c:axId val="129790336"/>
+        <c:axId val="129791872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171831296"/>
+        <c:axId val="129790336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1139,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171832832"/>
+        <c:crossAx val="129791872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1148,7 +1147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171832832"/>
+        <c:axId val="129791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1160,7 +1159,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171831296"/>
+        <c:crossAx val="129790336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2.5"/>
@@ -1428,11 +1427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171461632"/>
-        <c:axId val="171479808"/>
+        <c:axId val="129826176"/>
+        <c:axId val="129696896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171461632"/>
+        <c:axId val="129826176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1440,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171479808"/>
+        <c:crossAx val="129696896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1449,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171479808"/>
+        <c:axId val="129696896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1461,7 +1460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171461632"/>
+        <c:crossAx val="129826176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,11 +1725,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171907328"/>
-        <c:axId val="171913216"/>
+        <c:axId val="129735296"/>
+        <c:axId val="129741184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171907328"/>
+        <c:axId val="129735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1738,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171913216"/>
+        <c:crossAx val="129741184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171913216"/>
+        <c:axId val="129741184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1757,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171907328"/>
+        <c:crossAx val="129735296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2017,11 +2016,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171943424"/>
-        <c:axId val="171944960"/>
+        <c:axId val="130492288"/>
+        <c:axId val="130493824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171943424"/>
+        <c:axId val="130492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2029,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171944960"/>
+        <c:crossAx val="130493824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171944960"/>
+        <c:axId val="130493824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2048,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171943424"/>
+        <c:crossAx val="130492288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2329,11 +2328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171995904"/>
-        <c:axId val="171997440"/>
+        <c:axId val="130520192"/>
+        <c:axId val="130521728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171995904"/>
+        <c:axId val="130520192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2341,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171997440"/>
+        <c:crossAx val="130521728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +2349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171997440"/>
+        <c:axId val="130521728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2360,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171995904"/>
+        <c:crossAx val="130520192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2620,11 +2619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172556288"/>
-        <c:axId val="172557824"/>
+        <c:axId val="130560384"/>
+        <c:axId val="130561920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172556288"/>
+        <c:axId val="130560384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,7 +2632,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172557824"/>
+        <c:crossAx val="130561920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,7 +2640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172557824"/>
+        <c:axId val="130561920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172556288"/>
+        <c:crossAx val="130560384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2700,7 +2699,7 @@
               <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Unigine Valley: Relative average FPS</a:t>
+              <a:t>Unigine: Relative average FPS</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
@@ -2940,11 +2939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79815808"/>
-        <c:axId val="79817344"/>
+        <c:axId val="129185280"/>
+        <c:axId val="129186816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79815808"/>
+        <c:axId val="129185280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2952,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79817344"/>
+        <c:crossAx val="129186816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2961,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79817344"/>
+        <c:axId val="129186816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2973,7 +2972,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79815808"/>
+        <c:crossAx val="129185280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3022,7 +3021,7 @@
               <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Unigine Valley: Relative average FPS</a:t>
+              <a:t>Unigine: Relative average FPS</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -3260,11 +3259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49682688"/>
-        <c:axId val="49688576"/>
+        <c:axId val="129213952"/>
+        <c:axId val="129215488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49682688"/>
+        <c:axId val="129213952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49688576"/>
+        <c:crossAx val="129215488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3281,7 +3280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49688576"/>
+        <c:axId val="129215488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,7 +3291,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49682688"/>
+        <c:crossAx val="129213952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3528,11 +3527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184582912"/>
-        <c:axId val="184584448"/>
+        <c:axId val="129312256"/>
+        <c:axId val="129313792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184582912"/>
+        <c:axId val="129312256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3540,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184584448"/>
+        <c:crossAx val="129313792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184584448"/>
+        <c:axId val="129313792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3559,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184582912"/>
+        <c:crossAx val="129312256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3820,11 +3819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38535936"/>
-        <c:axId val="38537472"/>
+        <c:axId val="129354368"/>
+        <c:axId val="129835392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38535936"/>
+        <c:axId val="129354368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3832,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38537472"/>
+        <c:crossAx val="129835392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +3840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38537472"/>
+        <c:axId val="129835392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3853,7 +3852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38535936"/>
+        <c:crossAx val="129354368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2.5"/>
@@ -4121,11 +4120,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38567936"/>
-        <c:axId val="38569472"/>
+        <c:axId val="129849600"/>
+        <c:axId val="129855488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38567936"/>
+        <c:axId val="129849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4134,7 +4133,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38569472"/>
+        <c:crossAx val="129855488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4142,7 +4141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38569472"/>
+        <c:axId val="129855488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -4154,7 +4153,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38567936"/>
+        <c:crossAx val="129849600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4419,11 +4418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117941376"/>
-        <c:axId val="117942912"/>
+        <c:axId val="129896448"/>
+        <c:axId val="129897984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117941376"/>
+        <c:axId val="129896448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +4431,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117942912"/>
+        <c:crossAx val="129897984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,7 +4439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117942912"/>
+        <c:axId val="129897984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4450,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117941376"/>
+        <c:crossAx val="129896448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4710,11 +4709,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167006592"/>
-        <c:axId val="167008128"/>
+        <c:axId val="129919616"/>
+        <c:axId val="129937792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167006592"/>
+        <c:axId val="129919616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,7 +4722,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167008128"/>
+        <c:crossAx val="129937792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4731,7 +4730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167008128"/>
+        <c:axId val="129937792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4742,7 +4741,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167006592"/>
+        <c:crossAx val="129919616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5022,11 +5021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167020416"/>
-        <c:axId val="167021952"/>
+        <c:axId val="130099072"/>
+        <c:axId val="130100608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167020416"/>
+        <c:axId val="130099072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5035,7 +5034,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167021952"/>
+        <c:crossAx val="130100608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5043,7 +5042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167021952"/>
+        <c:axId val="130100608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5053,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167020416"/>
+        <c:crossAx val="130099072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5109,16 +5108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5139,16 +5138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5871,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6396,7 +6395,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -6563,6 +6562,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="A26:E26"/>
@@ -6571,7 +6571,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/doc/OpenGL performance.xlsx
+++ b/doc/OpenGL performance.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\G-Truc\website\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="15075"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="15075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mac" sheetId="5" r:id="rId1"/>
     <sheet name="Ultra" sheetId="4" r:id="rId2"/>
     <sheet name="Low" sheetId="1" r:id="rId3"/>
+    <sheet name="transfer" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="34">
   <si>
     <t>Low quality 640 x 480 no tessellation</t>
   </si>
@@ -100,6 +106,24 @@
   </si>
   <si>
     <t>GeForce 9400M, MacOS X 10.7.5 - Windows 7</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>HG Graphics 4600</t>
+  </si>
+  <si>
+    <t>GeForce GTX 970</t>
+  </si>
+  <si>
+    <t>Radeon R9 290X</t>
+  </si>
+  <si>
+    <t>Async staging transfer</t>
+  </si>
+  <si>
+    <t>Async client transfer</t>
   </si>
 </sst>
 </file>
@@ -223,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -236,6 +260,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,9 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,6 +299,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -281,7 +309,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -543,20 +571,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129250816"/>
-        <c:axId val="129252352"/>
+        <c:axId val="258952736"/>
+        <c:axId val="258946752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129250816"/>
+        <c:axId val="258952736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129252352"/>
+        <c:crossAx val="258946752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -564,7 +593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129252352"/>
+        <c:axId val="258946752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +604,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129250816"/>
+        <c:crossAx val="258952736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -600,7 +629,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -835,20 +864,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130143360"/>
-        <c:axId val="130144896"/>
+        <c:axId val="265596384"/>
+        <c:axId val="265596928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130143360"/>
+        <c:axId val="265596384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130144896"/>
+        <c:crossAx val="265596928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130144896"/>
+        <c:axId val="265596928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +897,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130143360"/>
+        <c:crossAx val="265596384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -891,7 +921,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1126,20 +1156,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129790336"/>
-        <c:axId val="129791872"/>
+        <c:axId val="265601280"/>
+        <c:axId val="461248992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129790336"/>
+        <c:axId val="265601280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129791872"/>
+        <c:crossAx val="461248992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1147,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129791872"/>
+        <c:axId val="461248992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1159,7 +1190,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129790336"/>
+        <c:crossAx val="265601280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2.5"/>
@@ -1184,7 +1215,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1427,20 +1458,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129826176"/>
-        <c:axId val="129696896"/>
+        <c:axId val="461243008"/>
+        <c:axId val="461244640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129826176"/>
+        <c:axId val="461243008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129696896"/>
+        <c:crossAx val="461244640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +1480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129696896"/>
+        <c:axId val="461244640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1460,7 +1492,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129826176"/>
+        <c:crossAx val="461243008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,7 +1516,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1725,20 +1757,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129735296"/>
-        <c:axId val="129741184"/>
+        <c:axId val="461256064"/>
+        <c:axId val="461250624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129735296"/>
+        <c:axId val="461256064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129741184"/>
+        <c:crossAx val="461250624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1746,7 +1779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129741184"/>
+        <c:axId val="461250624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1790,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129735296"/>
+        <c:crossAx val="461256064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,7 +1814,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2016,20 +2049,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130492288"/>
-        <c:axId val="130493824"/>
+        <c:axId val="461243552"/>
+        <c:axId val="461252256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130492288"/>
+        <c:axId val="461243552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130493824"/>
+        <c:crossAx val="461252256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2037,7 +2071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130493824"/>
+        <c:axId val="461252256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,7 +2082,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130492288"/>
+        <c:crossAx val="461243552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2106,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2328,20 +2362,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130520192"/>
-        <c:axId val="130521728"/>
+        <c:axId val="461241376"/>
+        <c:axId val="461245728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130520192"/>
+        <c:axId val="461241376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130521728"/>
+        <c:crossAx val="461245728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2349,7 +2384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130521728"/>
+        <c:axId val="461245728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,7 +2395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130520192"/>
+        <c:crossAx val="461241376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2384,7 +2419,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2619,20 +2654,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130560384"/>
-        <c:axId val="130561920"/>
+        <c:axId val="461254976"/>
+        <c:axId val="461250080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130560384"/>
+        <c:axId val="461254976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130561920"/>
+        <c:crossAx val="461250080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130561920"/>
+        <c:axId val="461250080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2687,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130560384"/>
+        <c:crossAx val="461254976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,10 +2708,408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transfer!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HG Graphics 4600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>transfer!$C$8:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sync</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Async client transfer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Async staging transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transfer!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38222222222222224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transfer!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radeon R9 290X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>transfer!$C$8:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sync</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Async client transfer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Async staging transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transfer!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7431192660550459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6880733944954129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transfer!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce GTX 970</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>transfer!$C$8:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sync</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Async client transfer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Async staging transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transfer!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2227488151658767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1279620853080567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="467707168"/>
+        <c:axId val="467688672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="467707168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467688672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467688672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467707168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2939,20 +3373,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129185280"/>
-        <c:axId val="129186816"/>
+        <c:axId val="258951648"/>
+        <c:axId val="258948928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129185280"/>
+        <c:axId val="258951648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129186816"/>
+        <c:crossAx val="258948928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2960,7 +3395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129186816"/>
+        <c:axId val="258948928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2972,7 +3407,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129185280"/>
+        <c:crossAx val="258951648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2997,7 +3432,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3259,20 +3694,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129213952"/>
-        <c:axId val="129215488"/>
+        <c:axId val="258945120"/>
+        <c:axId val="258946208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129213952"/>
+        <c:axId val="258945120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129215488"/>
+        <c:crossAx val="258946208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3280,7 +3716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129215488"/>
+        <c:axId val="258946208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,7 +3727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129213952"/>
+        <c:crossAx val="258945120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3316,7 +3752,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3527,20 +3963,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129312256"/>
-        <c:axId val="129313792"/>
+        <c:axId val="258952192"/>
+        <c:axId val="258954368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129312256"/>
+        <c:axId val="258952192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129313792"/>
+        <c:crossAx val="258954368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3548,7 +3985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129313792"/>
+        <c:axId val="258954368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3996,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129312256"/>
+        <c:crossAx val="258952192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3584,7 +4021,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3819,20 +4256,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129354368"/>
-        <c:axId val="129835392"/>
+        <c:axId val="258954912"/>
+        <c:axId val="258956000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129354368"/>
+        <c:axId val="258954912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129835392"/>
+        <c:crossAx val="258956000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3840,7 +4278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129835392"/>
+        <c:axId val="258956000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -3852,7 +4290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129354368"/>
+        <c:crossAx val="258954912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2.5"/>
@@ -3877,7 +4315,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4120,20 +4558,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129849600"/>
-        <c:axId val="129855488"/>
+        <c:axId val="258958720"/>
+        <c:axId val="157334992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129849600"/>
+        <c:axId val="258958720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129855488"/>
+        <c:crossAx val="157334992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4141,7 +4580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129855488"/>
+        <c:axId val="157334992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -4153,7 +4592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129849600"/>
+        <c:crossAx val="258958720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4177,7 +4616,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4418,20 +4857,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129896448"/>
-        <c:axId val="129897984"/>
+        <c:axId val="2116351952"/>
+        <c:axId val="2116349232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129896448"/>
+        <c:axId val="2116351952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129897984"/>
+        <c:crossAx val="2116349232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4439,7 +4879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129897984"/>
+        <c:axId val="2116349232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,7 +4890,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129896448"/>
+        <c:crossAx val="2116351952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4474,7 +4914,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4709,20 +5149,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129919616"/>
-        <c:axId val="129937792"/>
+        <c:axId val="265601824"/>
+        <c:axId val="265595840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129919616"/>
+        <c:axId val="265601824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129937792"/>
+        <c:crossAx val="265595840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4730,7 +5171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129937792"/>
+        <c:axId val="265595840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,7 +5182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129919616"/>
+        <c:crossAx val="265601824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4765,7 +5206,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5021,20 +5462,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130099072"/>
-        <c:axId val="130100608"/>
+        <c:axId val="265602368"/>
+        <c:axId val="265598016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130099072"/>
+        <c:axId val="265602368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130100608"/>
+        <c:crossAx val="265598016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5042,7 +5484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130100608"/>
+        <c:axId val="265598016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,7 +5495,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130099072"/>
+        <c:crossAx val="265602368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5072,6 +5514,549 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5581,6 +6566,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5624,7 +6644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5659,7 +6679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5870,7 +6890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -5891,42 +6911,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="H2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="H3" s="15" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -6045,36 +7065,36 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="12" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="H25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="H26" s="15" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="H26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -6598,37 +7618,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -6882,30 +7902,30 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -7159,30 +8179,30 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -7470,12 +8490,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7893,30 +8913,30 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -8170,30 +9190,30 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
@@ -8447,30 +9467,30 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -8735,4 +9755,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>920</v>
+      </c>
+      <c r="E3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>545</v>
+      </c>
+      <c r="D4">
+        <v>950</v>
+      </c>
+      <c r="E4">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>422</v>
+      </c>
+      <c r="D5">
+        <v>516</v>
+      </c>
+      <c r="E5">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <f>D3/C3*C9</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="E9" s="19">
+        <f>E3/C3*C9</f>
+        <v>0.38222222222222224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <f>D4/C4*C10</f>
+        <v>1.7431192660550459</v>
+      </c>
+      <c r="E10" s="19">
+        <f>E4/C4*C10</f>
+        <v>1.6880733944954129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <f>D5/C5*C11</f>
+        <v>1.2227488151658767</v>
+      </c>
+      <c r="E11" s="19">
+        <f>E5/C5*C11</f>
+        <v>3.1279620853080567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>